--- a/test/Procezor.OptimulaTest/test_import/Test-ExportTabulkaPrac-202008.xlsx
+++ b/test/Procezor.OptimulaTest/test_import/Test-ExportTabulkaPrac-202008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJ_HMGit\payrollcs\test\Procezor.OptimulaTest\test_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602050F3-1789-480C-B728-05F6B54C65E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D25617A3-E161-44B9-A815-CEC0C2A6404A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10390" yWindow="200" windowWidth="38220" windowHeight="12430" xr2:uid="{3451F04B-E563-4892-A941-0F79AA37F68A}"/>
+    <workbookView xWindow="8720" yWindow="220" windowWidth="38220" windowHeight="12430" xr2:uid="{CA2CBF52-FB33-435B-BEA2-C39FF8B6552F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pracovnici" sheetId="2" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5A62B2-E6C1-400A-9788-C9EA9274CC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089923C0-EA57-4027-9828-0F7EFFE3B08B}">
   <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6899,7 +6899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854BF14F-93A9-421D-A287-E3AD2CA5F815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5AA055-2C2B-47A7-9896-CD0938B0E096}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
